--- a/src/static/data/isakakotaro_book_list.xlsx
+++ b/src/static/data/isakakotaro_book_list.xlsx
@@ -7,14 +7,14 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="160505" sheetId="3" r:id="rId1"/>
+    <sheet name="170618" sheetId="4" r:id="rId1"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="243">
   <si>
     <t>구분</t>
   </si>
@@ -352,275 +352,11 @@
     <t>ライフ(秘密 。私 と 私のあいだの 十二話 )</t>
   </si>
   <si>
-    <t>NO</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>원제</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>일본출간</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>가격</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Link</t>
+    <t>집오리와 들오리의 코인로커</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>오듀본의 기도</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>명랑한 갱이 지구를 돌린다</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>집오리와 들오리의 코인로커</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>사신치바 (사신의정도)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>명랑한 갱의 일상과 습격</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>왕을 위한 팬클럽은 없다</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>양윤옥</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>바이바이, 블랙버드</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>김수현</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>믿음사</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>978-89-3748-942-6</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>남은 날은 전부 휴가</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>978-89-01-20425-3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>사신의7일 (사신의부력)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>김소영</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>978-89-0116-586-8</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>목 부러뜨리는 남자를 위한 협주곡</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>김선영</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>현대문학</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>978-89-7275-742-9</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이네 클라이네 나흐트 무지크</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>캡틴 선더볼트1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>978-89-3743-192-0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>캡틴 선더볼트2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>978-89-3743-193-7</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>자이로스코프</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>소설</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>명랑한갱은 셋을 세라</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>잠수함</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>サブマリン</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>그것도 괜찮겠네 (3652)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>오유리</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>웅진지식하우스</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>978-89-0116-637-7</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>단편수록</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>라이프 (비밀)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>유은경</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>행복한책일기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>978-89-8957-138-4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>단편수록</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>투명한 북극곰 (I Love You)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>신유희</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>해냄</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>978-89-7337-870-8</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>크리스마스는 탐정과 함께 (세계의 문학 154호)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>クリスマスを 探偵 と</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>977-12-2715-9</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>개정판</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>집오리와 들오리의 코인로커</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>978-89-7275-698-9</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>사막</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>978-89-7275-699-6</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>종말의바보</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>978-89-7275-726-9</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>칠드런</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>최고은</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>현대문학</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>978-89-7275-738-2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>개정판</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>오듀본의 기도</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>믿음사</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>978-89-374-3187-6</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1009,16 +745,337 @@
     <t>개정판</t>
   </si>
   <si>
+    <t>NO</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>원제</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>일본출간</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>가격</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Link</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>명랑한 갱이 지구를 돌린다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>사신치바 (사신의정도)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>명랑한 갱의 일상과 습격</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>왕을 위한 팬클럽은 없다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>양윤옥</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>바이바이, 블랙버드</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>김수현</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>믿음사</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>978-89-3748-942-6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>남은 날은 전부 휴가</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>978-89-01-20425-3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>사신의7일 (사신의부력)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>김소영</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>978-89-0116-586-8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>목 부러뜨리는 남자를 위한 협주곡</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>김선영</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>현대문학</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>978-89-7275-742-9</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이네 클라이네 나흐트 무지크</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>최고은</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>978-89-7275-799-3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>캡틴 선더볼트1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>978-89-3743-192-0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>캡틴 선더볼트2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>978-89-3743-193-7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>자이로스코프</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>소설</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>명랑한갱은 셋을 세라</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>잠수함</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>サブマリン</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>그것도 괜찮겠네 (3652)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>오유리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>웅진지식하우스</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>978-89-0116-637-7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>단편수록</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>라이프 (비밀)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>유은경</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>행복한책일기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>978-89-8957-138-4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>투명한 북극곰 (I Love You)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>신유희</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>해냄</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>978-89-7337-870-8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>크리스마스는 탐정과 함께 (세계의 문학 154호)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>クリスマスを 探偵 と</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>977-12-2715-9</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>개정판</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>집오리와 들오리의 코인로커</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>978-89-7275-698-9</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>사막</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>978-89-7275-699-6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>종말의바보</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>978-89-7275-726-9</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>칠드런</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>978-89-7275-738-2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>오듀본의 기도</t>
+  </si>
+  <si>
+    <t>믿음사</t>
+  </si>
+  <si>
+    <t>978-89-374-3187-6</t>
+  </si>
+  <si>
     <t>2005년</t>
-  </si>
-  <si>
-    <t>김선영</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>978-89-727-5776-4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>978-89-012-1587-7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>남은 날은 전부 휴가 (Re-born 시작의 한 걸음)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Story Seller vol.1 (목 부러뜨리는 남자의 주변)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>StorySellervol.1( 首折 り男 の 周辺 )</t>
+  </si>
+  <si>
+    <t>실험4호 - 고토을 기다리며</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>検問</t>
+  </si>
+  <si>
+    <t>Bluff 사기 합밤 미스터리 걸작선</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bluff騙し合いの夜ミステリー傑作選(講談社文庫)</t>
+  </si>
+  <si>
+    <t>마지막 사랑 MEN 'S 즉, 자신 최고의 사랑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>맑은 날은 수수께끼를 쫓아 가마</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>晴れた日は謎を追って がま</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>무크지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이사카코타로 대뷔 10주년 새로운 결의 총 특집</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이카사코타로 WORLD&amp;LOVE!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>伊坂幸太郞WORLD&amp;LOVE!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이사카코타로 전 소설 가이드북</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>伊坂幸太郞全小說ガイドブック</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이사카코타로×사이토카즈요 인연의 이야기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>伊坂幸太郎×斉藤和義絆のはなし</t>
   </si>
   <si>
     <r>
@@ -1069,25 +1126,16 @@
       </rPr>
       <t>)</t>
     </r>
-  </si>
-  <si>
-    <t xml:space="preserve"> - </t>
-  </si>
-  <si>
-    <t>Story Seller vol.1 (목 부러뜨리는 남자의 주변)</t>
-  </si>
-  <si>
-    <r>
-      <t>StorySellervol.1( 首折 り男 の 周</t>
-    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="9"/>
-        <rFont val="MS Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
-      <t>辺</t>
+      <t>実験</t>
     </r>
     <r>
       <rPr>
@@ -1096,77 +1144,15 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t> )</t>
-    </r>
-  </si>
-  <si>
-    <t>실험4호 - 고토을 기다리며</t>
-  </si>
-  <si>
-    <r>
-      <t>実験</t>
+      <t>4</t>
     </r>
     <r>
       <rPr>
         <sz val="9"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>号</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>―後藤を待ちながら</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>検</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>問</t>
-    </r>
-  </si>
-  <si>
-    <t>Bluff 사기 합밤 미스터리 걸작선</t>
-  </si>
-  <si>
-    <r>
-      <t>Bluff騙し合いの夜ミステリ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="MS Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>ー</t>
     </r>
     <r>
       <rPr>
@@ -1175,75 +1161,20 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>傑作選(講談社文庫)</t>
-    </r>
-  </si>
-  <si>
-    <t>마지막 사랑 MEN 'S 즉, 자신 최고의 사랑</t>
-  </si>
-  <si>
-    <t>무크지</t>
-  </si>
-  <si>
-    <t>이사카코타로 대뷔 10주년 새로운 결의 총 특집</t>
-  </si>
-  <si>
-    <t>이카사코타로 WORLD&amp;LOVE!</t>
-  </si>
-  <si>
-    <t>伊坂幸太郞WORLD&amp;LOVE!</t>
-  </si>
-  <si>
-    <t>이사카코타로 전 소설 가이드북</t>
-  </si>
-  <si>
-    <t>伊坂幸太郞全小說ガイドブック</t>
-  </si>
-  <si>
-    <t>이사카코타로×사이토카즈요 인연의 이야기</t>
-  </si>
-  <si>
-    <r>
-      <t>伊坂幸太</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>郎</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>×</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>斉</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>藤和義絆のはなし</t>
-    </r>
+      <t>―後藤を待ちながら</t>
+    </r>
+  </si>
+  <si>
+    <t>http://isakakotaro.co.kr/book/</t>
+  </si>
+  <si>
+    <t>http://isakakotaro.co.kr/book/aine</t>
+  </si>
+  <si>
+    <t>http://isakakotaro.co.kr/book/life</t>
+  </si>
+  <si>
+    <t>http://isakakotaro.co.kr/book/polarbear</t>
   </si>
 </sst>
 </file>
@@ -1254,7 +1185,7 @@
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="yyyy&quot;년&quot;\ m&quot;월&quot;\ d&quot;일&quot;;@"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1314,12 +1245,6 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -1328,13 +1253,6 @@
       <name val="MS Gothic"/>
       <family val="3"/>
       <charset val="128"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1367,7 +1285,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1396,7 +1314,7 @@
     <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1408,7 +1326,6 @@
     <xf numFmtId="41" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1427,15 +1344,10 @@
     <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="31" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="쉼표 [0]" xfId="1" builtinId="6"/>
@@ -1741,29 +1653,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L60"/>
+  <dimension ref="A1:L63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="74.875" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="4.125" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.875" style="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.5" style="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.75" style="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.75" style="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.375" style="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6" style="14" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.875" style="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6" style="14" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.5" style="14" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.5" style="14" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="36.5" style="14" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="74.875" style="14"/>
+    <col min="1" max="1" width="3.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="36.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="4.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>112</v>
+        <v>152</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>0</v>
@@ -1772,10 +1687,10 @@
         <v>1</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>113</v>
+        <v>153</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>114</v>
+        <v>154</v>
       </c>
       <c r="F1" s="11" t="s">
         <v>45</v>
@@ -1790,13 +1705,13 @@
         <v>48</v>
       </c>
       <c r="J1" s="13" t="s">
-        <v>115</v>
+        <v>155</v>
       </c>
       <c r="K1" s="12" t="s">
         <v>49</v>
       </c>
       <c r="L1" s="12" t="s">
-        <v>116</v>
+        <v>156</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -1807,15 +1722,15 @@
         <v>3</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="F2" s="16">
+      <c r="F2" s="15">
         <v>39051</v>
       </c>
       <c r="G2" s="3" t="s">
@@ -1827,14 +1742,14 @@
       <c r="I2" s="3">
         <v>489</v>
       </c>
-      <c r="J2" s="17">
+      <c r="J2" s="16">
         <v>10000</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="L2" s="3" t="s">
-        <v>180</v>
+      <c r="L2" s="6" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -1850,10 +1765,10 @@
       <c r="D3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="F3" s="16">
+      <c r="F3" s="15">
         <v>38855</v>
       </c>
       <c r="G3" s="3" t="s">
@@ -1865,14 +1780,14 @@
       <c r="I3" s="3">
         <v>459</v>
       </c>
-      <c r="J3" s="17">
+      <c r="J3" s="16">
         <v>11000</v>
       </c>
       <c r="K3" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="L3" s="3" t="s">
-        <v>181</v>
+      <c r="L3" s="6" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
@@ -1883,15 +1798,15 @@
         <v>3</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>118</v>
+        <v>157</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="F4" s="16">
+      <c r="F4" s="15">
         <v>39147</v>
       </c>
       <c r="G4" s="3" t="s">
@@ -1903,14 +1818,14 @@
       <c r="I4" s="3">
         <v>378</v>
       </c>
-      <c r="J4" s="18">
+      <c r="J4" s="17">
         <v>9800</v>
       </c>
       <c r="K4" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="L4" s="3" t="s">
-        <v>182</v>
+      <c r="L4" s="6" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
@@ -1926,10 +1841,10 @@
       <c r="D5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="E5" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="F5" s="16">
+      <c r="F5" s="15">
         <v>38867</v>
       </c>
       <c r="G5" s="3" t="s">
@@ -1941,14 +1856,14 @@
       <c r="I5" s="3">
         <v>496</v>
       </c>
-      <c r="J5" s="18">
+      <c r="J5" s="17">
         <v>12000</v>
       </c>
       <c r="K5" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="L5" s="3" t="s">
-        <v>183</v>
+      <c r="L5" s="6" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
@@ -1959,15 +1874,15 @@
         <v>3</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="E6" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="F6" s="16">
+      <c r="F6" s="15">
         <v>38887</v>
       </c>
       <c r="G6" s="3" t="s">
@@ -1979,14 +1894,14 @@
       <c r="I6" s="3">
         <v>445</v>
       </c>
-      <c r="J6" s="17">
+      <c r="J6" s="16">
         <v>10000</v>
       </c>
       <c r="K6" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="L6" s="3" t="s">
-        <v>184</v>
+      <c r="L6" s="6" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
@@ -2002,10 +1917,10 @@
       <c r="D7" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="15" t="s">
+      <c r="E7" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="F7" s="16">
+      <c r="F7" s="15">
         <v>38367</v>
       </c>
       <c r="G7" s="3" t="s">
@@ -2017,14 +1932,14 @@
       <c r="I7" s="3">
         <v>392</v>
       </c>
-      <c r="J7" s="18">
+      <c r="J7" s="17">
         <v>9500</v>
       </c>
       <c r="K7" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="L7" s="3" t="s">
-        <v>185</v>
+      <c r="L7" s="6" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
@@ -2040,10 +1955,10 @@
       <c r="D8" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="15" t="s">
+      <c r="E8" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="F8" s="16">
+      <c r="F8" s="15">
         <v>40154</v>
       </c>
       <c r="G8" s="3" t="s">
@@ -2055,14 +1970,14 @@
       <c r="I8" s="3">
         <v>454</v>
       </c>
-      <c r="J8" s="18">
+      <c r="J8" s="17">
         <v>12800</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="L8" s="3" t="s">
-        <v>186</v>
+      <c r="L8" s="6" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
@@ -2073,15 +1988,15 @@
         <v>3</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>120</v>
+        <v>158</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="15" t="s">
+      <c r="E9" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="F9" s="16">
+      <c r="F9" s="15">
         <v>38862</v>
       </c>
       <c r="G9" s="3" t="s">
@@ -2093,14 +2008,14 @@
       <c r="I9" s="3">
         <v>343</v>
       </c>
-      <c r="J9" s="17">
+      <c r="J9" s="16">
         <v>10000</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>187</v>
+      <c r="L9" s="6" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -2119,7 +2034,7 @@
       <c r="E10" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="F10" s="16">
+      <c r="F10" s="15">
         <v>38954</v>
       </c>
       <c r="G10" s="3" t="s">
@@ -2131,14 +2046,14 @@
       <c r="I10" s="3">
         <v>327</v>
       </c>
-      <c r="J10" s="17">
+      <c r="J10" s="16">
         <v>10000</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>188</v>
+      <c r="L10" s="6" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -2154,10 +2069,10 @@
       <c r="D11" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="15">
+      <c r="E11" s="14">
         <v>38687</v>
       </c>
-      <c r="F11" s="16">
+      <c r="F11" s="15">
         <v>39212</v>
       </c>
       <c r="G11" s="3" t="s">
@@ -2169,14 +2084,14 @@
       <c r="I11" s="3">
         <v>609</v>
       </c>
-      <c r="J11" s="17">
+      <c r="J11" s="16">
         <v>12000</v>
       </c>
       <c r="K11" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="L11" s="3" t="s">
-        <v>189</v>
+      <c r="L11" s="6" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -2190,12 +2105,12 @@
         <v>21</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="E12" s="15">
+        <v>142</v>
+      </c>
+      <c r="E12" s="14">
         <v>38802</v>
       </c>
-      <c r="F12" s="16">
+      <c r="F12" s="15">
         <v>38960</v>
       </c>
       <c r="G12" s="3" t="s">
@@ -2207,14 +2122,14 @@
       <c r="I12" s="3">
         <v>352</v>
       </c>
-      <c r="J12" s="18">
+      <c r="J12" s="17">
         <v>10000</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="L12" s="3" t="s">
-        <v>190</v>
+      <c r="L12" s="6" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -2225,15 +2140,15 @@
         <v>3</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>121</v>
+        <v>159</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E13" s="15">
+      <c r="E13" s="14">
         <v>38847</v>
       </c>
-      <c r="F13" s="16">
+      <c r="F13" s="15">
         <v>39360</v>
       </c>
       <c r="G13" s="3" t="s">
@@ -2245,14 +2160,14 @@
       <c r="I13" s="3">
         <v>383</v>
       </c>
-      <c r="J13" s="18">
+      <c r="J13" s="17">
         <v>9800</v>
       </c>
       <c r="K13" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="L13" s="3" t="s">
-        <v>191</v>
+      <c r="L13" s="6" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -2268,10 +2183,10 @@
       <c r="D14" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E14" s="15">
+      <c r="E14" s="14">
         <v>39113</v>
       </c>
-      <c r="F14" s="16">
+      <c r="F14" s="15">
         <v>39232</v>
       </c>
       <c r="G14" s="3" t="s">
@@ -2283,14 +2198,14 @@
       <c r="I14" s="3">
         <v>317</v>
       </c>
-      <c r="J14" s="17">
+      <c r="J14" s="16">
         <v>10000</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>192</v>
+      <c r="L14" s="6" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
@@ -2304,12 +2219,12 @@
         <v>25</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="E15" s="15">
+        <v>143</v>
+      </c>
+      <c r="E15" s="14">
         <v>39416</v>
       </c>
-      <c r="F15" s="16">
+      <c r="F15" s="15">
         <v>39609</v>
       </c>
       <c r="G15" s="3" t="s">
@@ -2321,14 +2236,14 @@
       <c r="I15" s="3">
         <v>527</v>
       </c>
-      <c r="J15" s="17">
+      <c r="J15" s="16">
         <v>13000</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="L15" s="3" t="s">
-        <v>193</v>
+      <c r="L15" s="6" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
@@ -2344,10 +2259,10 @@
       <c r="D16" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E16" s="15">
+      <c r="E16" s="14">
         <v>39737</v>
       </c>
-      <c r="F16" s="16">
+      <c r="F16" s="15">
         <v>40045</v>
       </c>
       <c r="G16" s="3" t="s">
@@ -2359,14 +2274,14 @@
       <c r="I16" s="3">
         <v>635</v>
       </c>
-      <c r="J16" s="17">
+      <c r="J16" s="16">
         <v>15000</v>
       </c>
       <c r="K16" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="L16" s="3" t="s">
-        <v>194</v>
+      <c r="L16" s="6" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
@@ -2377,19 +2292,19 @@
         <v>3</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>122</v>
+        <v>160</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E17" s="15">
+      <c r="E17" s="14">
         <v>40051</v>
       </c>
-      <c r="F17" s="16">
+      <c r="F17" s="15">
         <v>40476</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>123</v>
+        <v>161</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>54</v>
@@ -2397,14 +2312,14 @@
       <c r="I17" s="3">
         <v>292</v>
       </c>
-      <c r="J17" s="17">
+      <c r="J17" s="16">
         <v>12000</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>195</v>
+      <c r="L17" s="6" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
@@ -2420,10 +2335,10 @@
       <c r="D18" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E18" s="15">
+      <c r="E18" s="14">
         <v>40142</v>
       </c>
-      <c r="F18" s="16">
+      <c r="F18" s="15">
         <v>40382</v>
       </c>
       <c r="G18" s="3" t="s">
@@ -2435,14 +2350,14 @@
       <c r="I18" s="3">
         <v>400</v>
       </c>
-      <c r="J18" s="17">
+      <c r="J18" s="16">
         <v>12800</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>196</v>
+      <c r="L18" s="6" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
@@ -2456,12 +2371,12 @@
         <v>31</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="E19" s="15">
+        <v>144</v>
+      </c>
+      <c r="E19" s="14">
         <v>40263</v>
       </c>
-      <c r="F19" s="16">
+      <c r="F19" s="15">
         <v>40744</v>
       </c>
       <c r="G19" s="3" t="s">
@@ -2473,14 +2388,14 @@
       <c r="I19" s="3">
         <v>496</v>
       </c>
-      <c r="J19" s="17">
+      <c r="J19" s="16">
         <v>13800</v>
       </c>
       <c r="K19" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="L19" s="3" t="s">
-        <v>197</v>
+      <c r="L19" s="6" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
@@ -2491,15 +2406,15 @@
         <v>3</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>124</v>
+        <v>162</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E20" s="15">
+      <c r="E20" s="14">
         <v>40359</v>
       </c>
-      <c r="F20" s="16">
+      <c r="F20" s="15">
         <v>40704</v>
       </c>
       <c r="G20" s="3" t="s">
@@ -2511,14 +2426,14 @@
       <c r="I20" s="3">
         <v>391</v>
       </c>
-      <c r="J20" s="17">
+      <c r="J20" s="16">
         <v>12800</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>198</v>
+      <c r="L20" s="6" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
@@ -2532,12 +2447,12 @@
         <v>33</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="E21" s="15">
+        <v>145</v>
+      </c>
+      <c r="E21" s="14">
         <v>40444</v>
       </c>
-      <c r="F21" s="16">
+      <c r="F21" s="15">
         <v>40722</v>
       </c>
       <c r="G21" s="3" t="s">
@@ -2549,17 +2464,17 @@
       <c r="I21" s="3">
         <v>596</v>
       </c>
-      <c r="J21" s="17">
+      <c r="J21" s="16">
         <v>14300</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L21" s="6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -2572,7 +2487,7 @@
       <c r="D22" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E22" s="15">
+      <c r="E22" s="14">
         <v>40976</v>
       </c>
       <c r="F22" s="7" t="s">
@@ -2593,7 +2508,9 @@
       <c r="K22" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="L22" s="3"/>
+      <c r="L22" s="6" t="s">
+        <v>239</v>
+      </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
@@ -2602,35 +2519,35 @@
       <c r="B23" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C23" s="19" t="s">
+      <c r="C23" s="18" t="s">
         <v>66</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="E23" s="15">
+        <v>146</v>
+      </c>
+      <c r="E23" s="14">
         <v>41059</v>
       </c>
-      <c r="F23" s="20">
+      <c r="F23" s="19">
         <v>41852</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>126</v>
+        <v>164</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>127</v>
+        <v>165</v>
       </c>
       <c r="I23" s="3">
         <v>540</v>
       </c>
-      <c r="J23" s="17">
+      <c r="J23" s="16">
         <v>14800</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="L23" s="3" t="s">
-        <v>200</v>
+        <v>166</v>
+      </c>
+      <c r="L23" s="6" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
@@ -2641,15 +2558,15 @@
         <v>3</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>129</v>
+        <v>167</v>
       </c>
       <c r="D24" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="E24" s="15">
+      <c r="E24" s="14">
         <v>41327</v>
       </c>
-      <c r="F24" s="16">
+      <c r="F24" s="15">
         <v>42163</v>
       </c>
       <c r="G24" s="3" t="s">
@@ -2661,14 +2578,14 @@
       <c r="I24" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="J24" s="18">
+      <c r="J24" s="17">
         <v>13000</v>
       </c>
-      <c r="K24" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="L24" s="3" t="s">
-        <v>201</v>
+      <c r="K24" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="L24" s="6" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
@@ -2684,10 +2601,10 @@
       <c r="D25" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="E25" s="15">
+      <c r="E25" s="14">
         <v>41340</v>
       </c>
-      <c r="F25" s="16">
+      <c r="F25" s="15">
         <v>41663</v>
       </c>
       <c r="G25" s="3" t="s">
@@ -2699,14 +2616,14 @@
       <c r="I25" s="3">
         <v>496</v>
       </c>
-      <c r="J25" s="17">
+      <c r="J25" s="16">
         <v>14800</v>
       </c>
       <c r="K25" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="L25" s="3" t="s">
-        <v>202</v>
+      <c r="L25" s="6" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
@@ -2717,19 +2634,19 @@
         <v>3</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>131</v>
+        <v>169</v>
       </c>
       <c r="D26" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E26" s="15">
+      <c r="E26" s="14">
         <v>41572</v>
       </c>
-      <c r="F26" s="16">
+      <c r="F26" s="15">
         <v>41848</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>132</v>
+        <v>170</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>54</v>
@@ -2737,17 +2654,17 @@
       <c r="I26" s="3">
         <v>532</v>
       </c>
-      <c r="J26" s="17">
+      <c r="J26" s="16">
         <v>15000</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="L26" s="3" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+        <v>171</v>
+      </c>
+      <c r="L26" s="6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -2755,34 +2672,34 @@
         <v>3</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>134</v>
+        <v>172</v>
       </c>
       <c r="D27" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E27" s="15">
+      <c r="E27" s="14">
         <v>41670</v>
       </c>
       <c r="F27" s="9">
         <v>42184</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>135</v>
+        <v>173</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>136</v>
+        <v>174</v>
       </c>
       <c r="I27" s="1">
         <v>392</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>125</v>
+        <v>163</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="L27" s="3" t="s">
-        <v>204</v>
+        <v>175</v>
+      </c>
+      <c r="L27" s="6" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
@@ -2793,33 +2710,35 @@
         <v>3</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>138</v>
+        <v>176</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="E28" s="16">
+        <v>147</v>
+      </c>
+      <c r="E28" s="15">
         <v>41922</v>
       </c>
-      <c r="F28" s="9" t="s">
-        <v>15</v>
+      <c r="F28" s="9">
+        <v>42724</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>125</v>
+        <v>177</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="J28" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="K28" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="L28" s="3"/>
+        <v>174</v>
+      </c>
+      <c r="I28" s="1">
+        <v>328</v>
+      </c>
+      <c r="J28" s="2">
+        <v>13800</v>
+      </c>
+      <c r="K28" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="L28" s="6" t="s">
+        <v>240</v>
+      </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
@@ -2829,7 +2748,7 @@
         <v>3</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>139</v>
+        <v>179</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>105</v>
@@ -2837,26 +2756,26 @@
       <c r="E29" s="9">
         <v>41922</v>
       </c>
-      <c r="F29" s="16">
+      <c r="F29" s="15">
         <v>42174</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>60</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>127</v>
+        <v>165</v>
       </c>
       <c r="I29" s="3">
         <v>392</v>
       </c>
-      <c r="J29" s="18">
+      <c r="J29" s="17">
         <v>12000</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>205</v>
+        <v>180</v>
+      </c>
+      <c r="L29" s="6" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
@@ -2867,7 +2786,7 @@
         <v>3</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>105</v>
@@ -2875,26 +2794,26 @@
       <c r="E30" s="9">
         <v>41922</v>
       </c>
-      <c r="F30" s="16">
+      <c r="F30" s="15">
         <v>42174</v>
       </c>
       <c r="G30" s="3" t="s">
         <v>60</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>127</v>
+        <v>165</v>
       </c>
       <c r="I30" s="3">
         <v>332</v>
       </c>
-      <c r="J30" s="18">
+      <c r="J30" s="17">
         <v>12000</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="L30" s="3" t="s">
-        <v>205</v>
+        <v>182</v>
+      </c>
+      <c r="L30" s="6" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
@@ -2929,11 +2848,11 @@
         <v>15</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+        <v>163</v>
+      </c>
+      <c r="L31" s="6"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -2941,10 +2860,10 @@
         <v>3</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>143</v>
+        <v>183</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>214</v>
+        <v>148</v>
       </c>
       <c r="E32" s="7">
         <v>42183</v>
@@ -2965,22 +2884,21 @@
         <v>15</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>32</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>144</v>
+        <v>184</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>145</v>
+        <v>185</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>215</v>
+        <v>149</v>
       </c>
       <c r="E33" s="7">
         <v>42285</v>
@@ -3003,20 +2921,19 @@
       <c r="K33" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>33</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>144</v>
+        <v>184</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>146</v>
+        <v>186</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>147</v>
+        <v>187</v>
       </c>
       <c r="E34" s="7">
         <v>42459</v>
@@ -3039,7 +2956,7 @@
       <c r="K34" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="L34" s="3"/>
+      <c r="L34" s="6"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
@@ -3049,7 +2966,7 @@
         <v>41</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>148</v>
+        <v>188</v>
       </c>
       <c r="D35" s="6" t="s">
         <v>42</v>
@@ -3061,10 +2978,10 @@
         <v>41968</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>149</v>
+        <v>189</v>
       </c>
       <c r="H35" s="6" t="s">
-        <v>150</v>
+        <v>190</v>
       </c>
       <c r="I35" s="6">
         <v>272</v>
@@ -3073,13 +2990,13 @@
         <v>13000</v>
       </c>
       <c r="K35" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="L35" s="3" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+        <v>191</v>
+      </c>
+      <c r="L35" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -3113,17 +3030,17 @@
       <c r="K36" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="L36" s="3"/>
+      <c r="L36" s="6"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>36</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>152</v>
+        <v>192</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>153</v>
+        <v>193</v>
       </c>
       <c r="D37" s="6" t="s">
         <v>111</v>
@@ -3135,10 +3052,10 @@
         <v>38792</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>154</v>
+        <v>194</v>
       </c>
       <c r="H37" s="6" t="s">
-        <v>155</v>
+        <v>195</v>
       </c>
       <c r="I37" s="6">
         <v>176</v>
@@ -3147,22 +3064,24 @@
         <v>8000</v>
       </c>
       <c r="K37" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="L37" s="3"/>
+        <v>196</v>
+      </c>
+      <c r="L37" s="6" t="s">
+        <v>241</v>
+      </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>37</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>157</v>
+        <v>192</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>158</v>
+        <v>197</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>216</v>
+        <v>150</v>
       </c>
       <c r="E38" s="7" t="s">
         <v>102</v>
@@ -3171,10 +3090,10 @@
         <v>39330</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>159</v>
+        <v>198</v>
       </c>
       <c r="H38" s="6" t="s">
-        <v>160</v>
+        <v>199</v>
       </c>
       <c r="I38" s="6">
         <v>309</v>
@@ -3183,82 +3102,86 @@
         <v>11800</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="L38" s="3"/>
+        <v>200</v>
+      </c>
+      <c r="L38" s="6" t="s">
+        <v>242</v>
+      </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>38</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>157</v>
+        <v>192</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>162</v>
+        <v>201</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>163</v>
+        <v>202</v>
       </c>
       <c r="E39" s="7">
         <v>40508</v>
       </c>
-      <c r="F39" s="16">
+      <c r="F39" s="15">
         <v>41992</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>126</v>
+        <v>164</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>127</v>
+        <v>165</v>
       </c>
       <c r="I39" s="3">
         <v>420</v>
       </c>
-      <c r="J39" s="17">
+      <c r="J39" s="16">
         <v>15000</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="L39" s="3"/>
+        <v>203</v>
+      </c>
+      <c r="L39" s="6" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>39</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>165</v>
+        <v>204</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>166</v>
+        <v>205</v>
       </c>
       <c r="D40" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E40" s="15" t="s">
+      <c r="E40" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="F40" s="16">
+      <c r="F40" s="15">
         <v>41789</v>
       </c>
       <c r="G40" s="3" t="s">
         <v>60</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>136</v>
+        <v>174</v>
       </c>
       <c r="I40" s="3">
         <v>400</v>
       </c>
-      <c r="J40" s="17">
+      <c r="J40" s="16">
         <v>13800</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="L40" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
+      </c>
+      <c r="L40" s="6" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.2">
@@ -3266,37 +3189,37 @@
         <v>40</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="C41" s="19" t="s">
-        <v>168</v>
+        <v>204</v>
+      </c>
+      <c r="C41" s="18" t="s">
+        <v>207</v>
       </c>
       <c r="D41" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E41" s="15">
+      <c r="E41" s="14">
         <v>38687</v>
       </c>
-      <c r="F41" s="16">
+      <c r="F41" s="15">
         <v>41841</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>60</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>136</v>
+        <v>174</v>
       </c>
       <c r="I41" s="3">
         <v>514</v>
       </c>
-      <c r="J41" s="17">
+      <c r="J41" s="16">
         <v>13800</v>
       </c>
       <c r="K41" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="L41" s="3" t="s">
-        <v>184</v>
+        <v>208</v>
+      </c>
+      <c r="L41" s="6" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.2">
@@ -3304,37 +3227,37 @@
         <v>41</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="C42" s="19" t="s">
-        <v>170</v>
+        <v>204</v>
+      </c>
+      <c r="C42" s="18" t="s">
+        <v>209</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="E42" s="15">
+        <v>142</v>
+      </c>
+      <c r="E42" s="14">
         <v>38802</v>
       </c>
-      <c r="F42" s="16">
+      <c r="F42" s="15">
         <v>42062</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>135</v>
+        <v>173</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>136</v>
+        <v>174</v>
       </c>
       <c r="I42" s="3">
         <v>380</v>
       </c>
-      <c r="J42" s="17">
+      <c r="J42" s="16">
         <v>13000</v>
       </c>
       <c r="K42" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="L42" s="3" t="s">
-        <v>189</v>
+        <v>210</v>
+      </c>
+      <c r="L42" s="6" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.2">
@@ -3342,22 +3265,22 @@
         <v>42</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>165</v>
+        <v>204</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>172</v>
+        <v>211</v>
       </c>
       <c r="D43" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E43" s="15" t="s">
+      <c r="E43" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="F43" s="16">
+      <c r="F43" s="15">
         <v>42135</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>174</v>
@@ -3365,14 +3288,14 @@
       <c r="I43" s="3">
         <v>328</v>
       </c>
-      <c r="J43" s="17">
+      <c r="J43" s="16">
         <v>13000</v>
       </c>
       <c r="K43" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="L43" s="3" t="s">
-        <v>190</v>
+        <v>212</v>
+      </c>
+      <c r="L43" s="6" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.2">
@@ -3380,37 +3303,37 @@
         <v>43</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>176</v>
+        <v>151</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>177</v>
+        <v>213</v>
       </c>
       <c r="D44" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E44" s="15" t="s">
+      <c r="E44" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="F44" s="16">
+      <c r="F44" s="15">
         <v>42164</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>149</v>
+        <v>60</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>178</v>
+        <v>214</v>
       </c>
       <c r="I44" s="3">
         <v>520</v>
       </c>
-      <c r="J44" s="17">
+      <c r="J44" s="16">
         <v>14000</v>
       </c>
       <c r="K44" s="3" t="s">
-        <v>179</v>
+        <v>215</v>
       </c>
       <c r="L44" s="6" t="s">
-        <v>185</v>
+        <v>114</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.2">
@@ -3418,37 +3341,37 @@
         <v>44</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="C45" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D45" s="10" t="s">
+      <c r="D45" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E45" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="F45" s="7">
+      <c r="E45" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="F45" s="14">
         <v>42495</v>
       </c>
-      <c r="G45" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="H45" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="I45" s="6">
+      <c r="G45" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="I45" s="3">
         <v>448</v>
       </c>
-      <c r="J45" s="8">
+      <c r="J45" s="16">
         <v>13800</v>
       </c>
-      <c r="K45" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="L45" s="3" t="s">
-        <v>181</v>
+      <c r="K45" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="L45" s="6" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.2">
@@ -3456,36 +3379,40 @@
         <v>45</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>2</v>
+        <v>204</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="D46" s="10" t="s">
-        <v>222</v>
-      </c>
-      <c r="E46" s="7">
-        <v>39526</v>
-      </c>
-      <c r="F46" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G46" s="6" t="s">
-        <v>15</v>
+        <v>27</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E46" s="14">
+        <v>39737</v>
+      </c>
+      <c r="F46" s="15">
+        <v>42872</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>170</v>
       </c>
       <c r="H46" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I46" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="J46" s="8" t="s">
-        <v>223</v>
-      </c>
-      <c r="K46" s="6"/>
-      <c r="L46" s="6"/>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+        <v>190</v>
+      </c>
+      <c r="I46" s="3">
+        <v>608</v>
+      </c>
+      <c r="J46" s="16">
+        <v>15000</v>
+      </c>
+      <c r="K46" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="L46" s="6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -3493,13 +3420,13 @@
         <v>2</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="D47" s="6" t="s">
-        <v>225</v>
+        <v>219</v>
+      </c>
+      <c r="D47" s="10" t="s">
+        <v>237</v>
       </c>
       <c r="E47" s="7">
-        <v>39548</v>
+        <v>39526</v>
       </c>
       <c r="F47" s="7" t="s">
         <v>15</v>
@@ -3514,14 +3441,12 @@
         <v>15</v>
       </c>
       <c r="J47" s="8" t="s">
-        <v>223</v>
-      </c>
-      <c r="K47" s="6" t="s">
-        <v>15</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="K47" s="6"/>
       <c r="L47" s="6"/>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -3529,13 +3454,13 @@
         <v>2</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>40</v>
+        <v>220</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="E48" s="15">
-        <v>39913</v>
+        <v>221</v>
+      </c>
+      <c r="E48" s="7">
+        <v>39548</v>
       </c>
       <c r="F48" s="7" t="s">
         <v>15</v>
@@ -3550,28 +3475,28 @@
         <v>15</v>
       </c>
       <c r="J48" s="8" t="s">
-        <v>223</v>
+        <v>15</v>
       </c>
       <c r="K48" s="6" t="s">
         <v>15</v>
       </c>
       <c r="L48" s="6"/>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>48</v>
       </c>
       <c r="B49" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C49" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="D49" s="21" t="s">
-        <v>227</v>
-      </c>
-      <c r="E49" s="16">
-        <v>39562</v>
+      <c r="C49" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="E49" s="7">
+        <v>39913</v>
       </c>
       <c r="F49" s="7" t="s">
         <v>15</v>
@@ -3586,27 +3511,27 @@
         <v>15</v>
       </c>
       <c r="J49" s="8" t="s">
-        <v>223</v>
+        <v>15</v>
       </c>
       <c r="K49" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>49</v>
       </c>
       <c r="B50" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C50" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D50" s="21" t="s">
-        <v>228</v>
-      </c>
-      <c r="E50" s="16">
-        <v>39630</v>
+      <c r="C50" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="E50" s="14">
+        <v>39562</v>
       </c>
       <c r="F50" s="7" t="s">
         <v>15</v>
@@ -3621,7 +3546,7 @@
         <v>15</v>
       </c>
       <c r="J50" s="8" t="s">
-        <v>223</v>
+        <v>15</v>
       </c>
       <c r="K50" s="6" t="s">
         <v>15</v>
@@ -3635,14 +3560,14 @@
       <c r="B51" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C51" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="D51" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="E51" s="7">
-        <v>40205</v>
+      <c r="C51" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="E51" s="15">
+        <v>39630</v>
       </c>
       <c r="F51" s="7" t="s">
         <v>15</v>
@@ -3657,7 +3582,7 @@
         <v>15</v>
       </c>
       <c r="J51" s="8" t="s">
-        <v>223</v>
+        <v>15</v>
       </c>
       <c r="K51" s="6" t="s">
         <v>15</v>
@@ -3671,14 +3596,14 @@
       <c r="B52" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C52" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="D52" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="E52" s="7">
-        <v>40976</v>
+      <c r="C52" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E52" s="15">
+        <v>40205</v>
       </c>
       <c r="F52" s="7" t="s">
         <v>15</v>
@@ -3693,14 +3618,14 @@
         <v>15</v>
       </c>
       <c r="J52" s="8" t="s">
-        <v>223</v>
+        <v>15</v>
       </c>
       <c r="K52" s="6" t="s">
         <v>15</v>
       </c>
       <c r="L52" s="6"/>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -3708,13 +3633,13 @@
         <v>2</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>229</v>
+        <v>107</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>230</v>
+        <v>107</v>
       </c>
       <c r="E53" s="7">
-        <v>41012</v>
+        <v>40976</v>
       </c>
       <c r="F53" s="7" t="s">
         <v>15</v>
@@ -3729,14 +3654,14 @@
         <v>15</v>
       </c>
       <c r="J53" s="8" t="s">
-        <v>223</v>
+        <v>15</v>
       </c>
       <c r="K53" s="6" t="s">
         <v>15</v>
       </c>
       <c r="L53" s="6"/>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -3744,13 +3669,13 @@
         <v>2</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>108</v>
+        <v>225</v>
       </c>
       <c r="E54" s="7">
-        <v>41057</v>
+        <v>41012</v>
       </c>
       <c r="F54" s="7" t="s">
         <v>15</v>
@@ -3765,28 +3690,28 @@
         <v>15</v>
       </c>
       <c r="J54" s="8" t="s">
-        <v>223</v>
+        <v>15</v>
       </c>
       <c r="K54" s="6" t="s">
         <v>15</v>
       </c>
       <c r="L54" s="6"/>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>54</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>232</v>
+        <v>2</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E55" s="7">
-        <v>40483</v>
+        <v>41057</v>
       </c>
       <c r="F55" s="7" t="s">
         <v>15</v>
@@ -3801,135 +3726,183 @@
         <v>15</v>
       </c>
       <c r="J55" s="8" t="s">
-        <v>223</v>
+        <v>15</v>
       </c>
       <c r="K55" s="6" t="s">
         <v>15</v>
       </c>
       <c r="L55" s="6"/>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>55</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>232</v>
+        <v>2</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="E56" s="7">
-        <v>40179</v>
-      </c>
-      <c r="F56" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G56" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H56" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I56" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="J56" s="8" t="s">
-        <v>223</v>
-      </c>
-      <c r="K56" s="6" t="s">
-        <v>15</v>
-      </c>
+        <v>41995</v>
+      </c>
+      <c r="F56" s="7"/>
+      <c r="G56" s="6"/>
+      <c r="H56" s="6"/>
+      <c r="I56" s="6"/>
+      <c r="J56" s="8"/>
+      <c r="K56" s="6"/>
       <c r="L56" s="6"/>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>56</v>
       </c>
       <c r="B57" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="E57" s="7">
+        <v>40483</v>
+      </c>
+      <c r="F57" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G57" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H57" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I57" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J57" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="K57" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="L57" s="6"/>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A58" s="1">
+        <v>57</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="D58" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="C57" s="6" t="s">
+      <c r="E58" s="7">
+        <v>40179</v>
+      </c>
+      <c r="F58" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G58" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H58" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I58" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J58" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="K58" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="L58" s="6"/>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A59" s="1">
+        <v>58</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="E59" s="7">
+        <v>40664</v>
+      </c>
+      <c r="F59" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G59" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H59" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I59" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J59" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="K59" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="L59" s="6"/>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A60" s="1">
+        <v>59</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="D60" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="D57" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="E57" s="7">
-        <v>40664</v>
-      </c>
-      <c r="F57" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G57" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H57" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I57" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="J57" s="8" t="s">
-        <v>223</v>
-      </c>
-      <c r="K57" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="L57" s="6"/>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A58" s="22">
-        <v>57</v>
-      </c>
-      <c r="B58" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="C58" s="22" t="s">
-        <v>238</v>
-      </c>
-      <c r="D58" s="22" t="s">
-        <v>239</v>
-      </c>
-      <c r="E58" s="23">
+      <c r="E60" s="7">
         <v>39366</v>
       </c>
-      <c r="F58" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="G58" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="H58" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="I58" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="J58" s="14" t="s">
-        <v>223</v>
-      </c>
-      <c r="K58" s="14" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A59" s="22"/>
-      <c r="B59" s="22"/>
-      <c r="C59" s="22"/>
-      <c r="D59" s="22"/>
-      <c r="E59" s="22"/>
-      <c r="F59" s="22"/>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A60" s="22"/>
-      <c r="B60" s="22"/>
-      <c r="C60" s="22"/>
-      <c r="D60" s="22"/>
-      <c r="E60" s="22"/>
-      <c r="F60" s="22"/>
+      <c r="F60" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G60" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H60" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I60" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J60" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="K60" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="L60" s="6"/>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D63" s="21"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
